--- a/EDA.xlsx
+++ b/EDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\大學\實驗室\三疾病\202312代辦\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annabethlu/R_Projects/ded-dep-ibs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B44141D-D887-4A85-ADFC-A021F6675CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AA067E-4E67-4D43-9293-E2467958B19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3564" yWindow="0" windowWidth="15108" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3560" yWindow="740" windowWidth="21460" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sup table1 Demographic" sheetId="7" r:id="rId1"/>
@@ -2200,14 +2200,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2215,7 +2215,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2223,7 +2223,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -2232,7 +2232,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2241,7 +2241,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2250,7 +2250,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2258,7 +2258,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2266,7 +2266,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2274,7 +2274,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C6500"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2282,7 +2282,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2291,7 +2291,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2300,7 +2300,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2308,7 +2308,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2317,7 +2317,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2325,7 +2325,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2334,7 +2334,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2343,7 +2343,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2351,7 +2351,7 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2363,7 +2363,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2396,7 +2396,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2942,7 +2942,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -3091,10 +3091,10 @@
     <xf numFmtId="0" fontId="27" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3105,52 +3105,52 @@
     </xf>
   </cellXfs>
   <cellStyles count="46">
-    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="一般 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="一般 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="一般 4" xfId="42" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="千分位 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3431,19 +3431,19 @@
   <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection sqref="A1:H163"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="50.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.5" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3458,7 +3458,7 @@
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
-    <row r="2" spans="1:8" ht="16.8" thickBot="1">
+    <row r="2" spans="1:8" ht="17" thickBot="1">
       <c r="A2" s="28" t="s">
         <v>543</v>
       </c>
@@ -3498,7 +3498,7 @@
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:8" ht="16.8" thickBot="1">
+    <row r="5" spans="1:8" ht="17" thickBot="1">
       <c r="A5" s="22"/>
       <c r="B5" s="22" t="s">
         <v>546</v>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="H88" s="38"/>
     </row>
-    <row r="89" spans="1:8" ht="16.8" thickBot="1">
+    <row r="89" spans="1:8" ht="17" thickBot="1">
       <c r="A89" s="42" t="s">
         <v>614</v>
       </c>
@@ -5158,7 +5158,7 @@
       <c r="G91" s="24"/>
       <c r="H91" s="24"/>
     </row>
-    <row r="92" spans="1:8" ht="16.8" thickBot="1">
+    <row r="92" spans="1:8" ht="17" thickBot="1">
       <c r="A92" s="22"/>
       <c r="B92" s="22" t="s">
         <v>551</v>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="H149" s="34"/>
     </row>
-    <row r="150" spans="1:8" ht="16.8" thickBot="1">
+    <row r="150" spans="1:8" ht="17" thickBot="1">
       <c r="A150" s="36" t="s">
         <v>643</v>
       </c>
@@ -6312,7 +6312,7 @@
       <c r="G152" s="21"/>
       <c r="H152" s="21"/>
     </row>
-    <row r="153" spans="1:8" ht="16.8" thickBot="1">
+    <row r="153" spans="1:8" ht="17" thickBot="1">
       <c r="A153" s="22"/>
       <c r="B153" s="22" t="s">
         <v>557</v>
@@ -6540,12 +6540,12 @@
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="52.77734375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="48.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -7548,12 +7548,12 @@
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -7911,7 +7911,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="31.2">
+    <row r="32" spans="1:5" ht="38">
       <c r="A32" s="15" t="s">
         <v>523</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="18">
       <c r="A42" s="16" t="s">
         <v>524</v>
       </c>
@@ -8248,12 +8248,12 @@
       <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="31.21875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -8336,7 +8336,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="48.6">
+    <row r="7" spans="1:5" ht="48">
       <c r="A7" s="18" t="s">
         <v>447</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="18">
       <c r="A10" s="13" t="s">
         <v>528</v>
       </c>
@@ -8420,12 +8420,12 @@
       <selection activeCell="A2" sqref="A2:E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="40.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -9421,11 +9421,11 @@
       <selection sqref="A1:E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="9" style="5"/>
   </cols>
@@ -9784,7 +9784,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="31.2">
+    <row r="32" spans="1:5" ht="38">
       <c r="A32" s="15" t="s">
         <v>523</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="18">
       <c r="A42" s="16" t="s">
         <v>524</v>
       </c>
@@ -10121,12 +10121,12 @@
       <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
     <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="17.21875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -10209,7 +10209,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32.4">
+    <row r="7" spans="1:5" ht="32">
       <c r="A7" s="18" t="s">
         <v>447</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="18">
       <c r="A10" s="13" t="s">
         <v>528</v>
       </c>
